--- a/peer_evaluation_2018.xlsx
+++ b/peer_evaluation_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanm\OneDrive\Documents\University of Idaho\Classes\Fall 2018\STAT 517\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE7985A-D614-411A-9228-4BBA9A1B58AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD7E97-34C9-44C6-83C4-CC2A6E957D67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Order of Presentation</t>
   </si>
@@ -60,13 +60,7 @@
     <t>Adarapuram, Abhinav Prabhu</t>
   </si>
   <si>
-    <t>0 or 1</t>
-  </si>
-  <si>
     <t>Capio, Rosebella</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>Heiderman, Ryan R. *</t>
@@ -566,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -582,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -601,8 +595,8 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
+      <c r="D2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -610,13 +604,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
+      <c r="D3" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -624,13 +618,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
+      <c r="D4" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -638,43 +632,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -684,55 +684,63 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -742,60 +750,70 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9">
         <v>0</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
